--- a/Gaurav_MyLearning/NewLearning/iperf-3.17.1-win64/line_chart_example_with_custom_x_axis.xlsx
+++ b/Gaurav_MyLearning/NewLearning/iperf-3.17.1-win64/line_chart_example_with_custom_x_axis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="11415" windowHeight="4635"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -371,11 +371,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="122676736"/>
-        <c:axId val="122678272"/>
+        <c:axId val="122594816"/>
+        <c:axId val="122596352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="122676736"/>
+        <c:axId val="122594816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -383,14 +383,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122678272"/>
+        <c:crossAx val="122596352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122678272"/>
+        <c:axId val="122596352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -398,7 +398,7 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="122676736"/>
+        <c:crossAx val="122594816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
